--- a/evaluation/seet.evaluation.correctness&completeness/Competition2TVApp.mutants/evaluation.xlsx
+++ b/evaluation/seet.evaluation.correctness&completeness/Competition2TVApp.mutants/evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/Revise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/jss revised/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D775DA01-3E83-9D46-956B-6E810C9B4D49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ECFEEC-22FF-9340-AFF8-D1A0D2D5DF5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{10535634-6B57-C74D-9FB6-1C377AFE583D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="84">
   <si>
     <t>Mutant</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>CreateOperand.Competition2TVApp.Mutant3.etl</t>
+  </si>
+  <si>
+    <t>ModifylazyCompetition2Application.Competition2TVApp2.Mutant1.etl</t>
   </si>
 </sst>
 </file>
@@ -626,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C62F95A-067A-B840-8A4C-8088DC356594}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1353,7 +1356,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>5</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>5</v>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>5</v>
@@ -1395,7 +1398,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>5</v>
@@ -1409,7 +1412,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>5</v>
@@ -1423,7 +1426,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>5</v>
@@ -1437,7 +1440,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>5</v>
@@ -1451,7 +1454,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>5</v>
@@ -1465,7 +1468,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>5</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>5</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>5</v>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>5</v>
@@ -1521,7 +1524,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>5</v>
@@ -1535,7 +1538,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>5</v>
@@ -1549,7 +1552,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>5</v>
@@ -1563,7 +1566,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>5</v>
@@ -1577,7 +1580,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>5</v>
@@ -1591,7 +1594,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>5</v>
@@ -1605,7 +1608,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>5</v>
@@ -1619,7 +1622,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>5</v>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>5</v>
@@ -1647,43 +1650,57 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>68</v>
       </c>
     </row>
